--- a/output_by_subject/CE303.xlsx
+++ b/output_by_subject/CE303.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3303,6 +3303,160 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1901CE27</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CE303</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1901CE29</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CE303</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1901CE30</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CE303</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1901CE34</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CE303</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1901CE36</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CE303</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1901CE38</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CE303</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1901CE39</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CE303</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
